--- a/figure/chap4/chap4.xlsx
+++ b/figure/chap4/chap4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEE2698F-5B5E-4357-ACF2-FBAF0CD6356C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6F7C73E-D712-4DB2-8855-2075C4A80A7F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,13 +155,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>483577</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>83039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>170962</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -216,13 +216,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>499208</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>93785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>396631</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>211016</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -277,13 +277,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>499208</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>93785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>396631</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>211016</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -603,10 +603,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C3:I22"/>
+  <dimension ref="C4:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -615,131 +615,131 @@
     <col min="5" max="5" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="18.5" thickBot="1"/>
-    <row r="4" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
+    <row r="4" spans="3:9" ht="18.5" thickBot="1"/>
     <row r="5" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="3:9" ht="18.5" thickBot="1">
-      <c r="I6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="18.5" thickBot="1">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
     <row r="8" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="18.5" thickBot="1"/>
-    <row r="12" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="3:9" ht="18.5" thickBot="1">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="18.5" thickBot="1"/>
     <row r="13" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="18.5" thickBot="1"/>
-    <row r="16" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="3:9" ht="18.5" thickBot="1">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="18.5" thickBot="1"/>
     <row r="17" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:9" ht="18.5" thickBot="1">
-      <c r="I18" t="s">
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="18.5" thickBot="1">
+      <c r="I19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
     <row r="20" spans="3:9" ht="18.5" thickBot="1">
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" t="s">
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:9" ht="18.5" thickBot="1">
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" t="s">
         <v>0</v>
       </c>
     </row>
